--- a/data/chuzi.xlsx
+++ b/data/chuzi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\lifujisuanqi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GuildleveExperienceCalculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED3B077-789F-4C5F-A303-74A43BEBE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB0A0E-637A-460D-AC0B-8AB31632D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="289">
   <si>
     <t>[1] 制作委托：用于储备的食盐</t>
   </si>
@@ -837,6 +838,66 @@
   </si>
   <si>
     <t>高山茶×3</t>
+  </si>
+  <si>
+    <t>[90] 制作委托：极品夹饼不可或缺的料酒</t>
+  </si>
+  <si>
+    <t>梅斯卡料酒×9</t>
+  </si>
+  <si>
+    <t>[90] 制作委托：名产羊驼肉排</t>
+  </si>
+  <si>
+    <t>炖煮羊驼肉排×3</t>
+  </si>
+  <si>
+    <t>[92] 制作委托：名产河鬼的多汁烤肉</t>
+  </si>
+  <si>
+    <t>梅斯卡香煎沼泽鬼鱼肉×3</t>
+  </si>
+  <si>
+    <t>[92] 制作委托：极品夹饼的宫廷调料</t>
+  </si>
+  <si>
+    <t>高级枫糖浆×9</t>
+  </si>
+  <si>
+    <t>[94] 制作委托：常客赞不绝口的风味拌细面</t>
+  </si>
+  <si>
+    <t>双油风味拌细面×3</t>
+  </si>
+  <si>
+    <t>[94] 制作委托：极致甜味融于口中的巧克力奶油蛋糕</t>
+  </si>
+  <si>
+    <t>巧克力奶油蛋糕×3</t>
+  </si>
+  <si>
+    <t>[96] 制作委托：极品夹饼与菠萝搭配</t>
+  </si>
+  <si>
+    <t>牧羊人夹饼×3</t>
+  </si>
+  <si>
+    <t>[96] 制作委托：最棒的味道醇厚的果昔</t>
+  </si>
+  <si>
+    <t>野生香蕉果昔×3</t>
+  </si>
+  <si>
+    <t>[98] 制作委托：与极品夹饼完美适配的果汁</t>
+  </si>
+  <si>
+    <t>牧豆树豆汁×3</t>
+  </si>
+  <si>
+    <t>[98] 制作委托：名产恩惠之湾的番茄水煮鱼</t>
+  </si>
+  <si>
+    <t>番茄水煮鱼×3</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -3434,4 +3495,160 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250A9BEA-C66F-44C5-96ED-AD56FA1776FD}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1">
+        <v>1440660</v>
+      </c>
+      <c r="D1">
+        <v>2530</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2">
+        <v>1713570</v>
+      </c>
+      <c r="D2">
+        <v>5060</v>
+      </c>
+      <c r="E2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>2230900</v>
+      </c>
+      <c r="D3">
+        <v>5070</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4">
+        <v>1665250</v>
+      </c>
+      <c r="D4">
+        <v>2535</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5">
+        <v>2041900</v>
+      </c>
+      <c r="D5">
+        <v>5100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6">
+        <v>2382950</v>
+      </c>
+      <c r="D6">
+        <v>5100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7">
+        <v>2771460</v>
+      </c>
+      <c r="D7">
+        <v>5140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8">
+        <v>2952300</v>
+      </c>
+      <c r="D8">
+        <v>5140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9">
+        <v>2903990</v>
+      </c>
+      <c r="D9">
+        <v>5180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10">
+        <v>3206200</v>
+      </c>
+      <c r="D10">
+        <v>5180</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>